--- a/dados/depara_contas.xlsx
+++ b/dados/depara_contas.xlsx
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>25.01.03</t>
+          <t>25.06.05</t>
         </is>
       </c>
     </row>
